--- a/AMS/controllers/teachers.xlsx
+++ b/AMS/controllers/teachers.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>teachers_email</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>teacher5@gmail.com</t>
+  </si>
+  <si>
+    <t>teacher8@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -388,7 +391,7 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -427,7 +430,9 @@
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2"/>
@@ -439,9 +444,10 @@
     <hyperlink ref="A4" r:id="rId3"/>
     <hyperlink ref="A5" r:id="rId4"/>
     <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
